--- a/templates/report_weekly_moneyflow.xlsx
+++ b/templates/report_weekly_moneyflow.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
   <si>
     <t>Начало недели:</t>
   </si>
@@ -112,9 +112,6 @@
   </si>
   <si>
     <t>${table:t1.total_amount}</t>
-  </si>
-  <si>
-    <t>powered by ccs.msk.ru</t>
   </si>
   <si>
     <t>${weekday_5}</t>
@@ -944,7 +941,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -957,7 +954,9 @@
   </sheetPr>
   <dimension ref="A2:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1013,7 +1012,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I4" s="8"/>
       <c r="J4" s="9" t="s">
@@ -1044,7 +1043,7 @@
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="15"/>
@@ -1150,9 +1149,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J14" s="40" t="s">
-        <v>27</v>
-      </c>
+      <c r="J14" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
